--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-508653.0499001428</v>
+        <v>-477003.4209379303</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17410625.23004074</v>
+        <v>16765245.16155731</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9258631.227399476</v>
+        <v>9289819.680168904</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>126.7275861432243</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>322.2568246624401</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -826,10 +826,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>6.044462233057329</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -865,7 +865,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>256.3241185114317</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>335.8915546016273</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>239.1268377593974</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1063,16 +1063,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>56.48887588326752</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>153.2006427344288</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>261.5386884515846</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>106.6568367790474</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>219.7703493858182</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,10 +1354,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>314.3946680789908</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>292.4095605822458</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1768,10 +1768,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776706</v>
       </c>
       <c r="E16" t="n">
-        <v>28.46824604904414</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791320984</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556936</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2014,10 +2014,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015867</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225745</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800248</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170888</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>18.05677735225773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573256</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2479,13 +2479,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>46.45303019605525</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>64.90507698037614</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2494,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998592</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,16 +3670,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934875</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3916,7 +3916,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432375</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934476</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -3961,7 +3961,7 @@
         <v>253.070430030824</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811738</v>
+        <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
         <v>208.9097636402854</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>1769.744193910136</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.618961230547</v>
+        <v>1331.601721093559</v>
       </c>
       <c r="D2" t="n">
-        <v>788.0372869678149</v>
+        <v>1203.594058322626</v>
       </c>
       <c r="E2" t="n">
-        <v>359.4556127050832</v>
+        <v>769.8193134809208</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>341.9518838901285</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>341.9518838901285</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.82172933334476</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048476</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="L2" t="n">
-        <v>1107.976466382457</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="M2" t="n">
-        <v>1107.976466382457</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="N2" t="n">
-        <v>1107.976466382457</v>
+        <v>607.5718832905884</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1256.083015301587</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.594147312586</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271181</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024238</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024238</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024238</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024238</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024238</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2619.431947475675</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>2200.289484054986</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>2196.043764395044</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>558.5766849517776</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>452.1202237884198</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>357.0299349349731</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>262.9095202619268</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>179.5256818780884</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>94.14059214427229</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048476</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>78.46861312094236</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>403.0269380871547</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>403.0269380871547</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>403.0269380871547</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>403.0269380871547</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>403.0269380871547</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>409.2218527018795</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1598.471923344954</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1715.644701439294</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1652.189263887677</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.010620218278</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1345.674073218247</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1146.556555280246</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>961.2338010134399</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>806.36636525232</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>679.8805860315407</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>610.9310248097249</v>
+        <v>965.5851077738888</v>
       </c>
       <c r="C4" t="n">
-        <v>438.3693132929499</v>
+        <v>793.0233962571137</v>
       </c>
       <c r="D4" t="n">
-        <v>438.3693132929499</v>
+        <v>793.0233962571137</v>
       </c>
       <c r="E4" t="n">
-        <v>268.6113095436871</v>
+        <v>623.2653925078511</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>446.5583384696072</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>280.9670634954349</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>141.0648891858094</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048476</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>138.9846251251746</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>413.7430796963102</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>831.9529614642712</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>1291.436828645184</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1733.695631802829</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2153.36488102861</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2500.871774998952</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024238</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2598.82917672961</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2439.587808027607</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>2439.587808027607</v>
       </c>
       <c r="U4" t="n">
-        <v>1397.332608038895</v>
+        <v>2161.154807280712</v>
       </c>
       <c r="V4" t="n">
-        <v>1110.377099909325</v>
+        <v>1902.241556259064</v>
       </c>
       <c r="W4" t="n">
-        <v>838.3506954956167</v>
+        <v>1630.215151845355</v>
       </c>
       <c r="X4" t="n">
-        <v>838.3506954956167</v>
+        <v>1384.823397178768</v>
       </c>
       <c r="Y4" t="n">
-        <v>610.9310248097249</v>
+        <v>1157.403726492876</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1167.069156190556</v>
+        <v>576.9744364820456</v>
       </c>
       <c r="C5" t="n">
-        <v>738.4874819278243</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D5" t="n">
-        <v>706.6181011426729</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>676.8837603413722</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1208.676101675288</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>1193.574042295002</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y5" t="n">
-        <v>1189.32832263506</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>764.7921222294549</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>592.2304107126798</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>426.3524179142025</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>256.5944141649398</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>256.5944141649398</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>91.00313919076746</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>91.00313919076746</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>992.2117929153466</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>992.2117929153466</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>992.2117929153466</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>764.7921222294549</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1198.257367359921</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.155298583749</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>899.9748051983096</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>870.2404643970089</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>442.3730348062166</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>40.97520342948047</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>40.97520342948047</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>40.97520342948047</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>476.2298908823984</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>476.2298908823984</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>476.2298908823984</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>476.2298908823984</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>476.2298908823984</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>983.2980333222192</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1490.36617576204</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1997.434318201861</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2048.760171474024</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2048.760171474024</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2048.760171474024</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.760171474024</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.760171474024</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1643.904716885057</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1628.802657504772</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.556937844829</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.1469484207732</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>440.6904872574156</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>345.6001984039688</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>251.4797837309225</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>168.0959453470841</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>82.710855613268</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>40.97520342948047</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>67.03887658993807</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>391.5972015561504</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>898.6653439959712</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>898.6653439959712</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>898.6653439959712</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>898.6653439959712</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1079.974044374129</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1079.974044374129</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1587.04218681395</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1704.214964908289</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1640.759527356672</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1510.580883687274</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1334.244336687242</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1135.126818749242</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>949.8040644824357</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>794.9366287213156</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.4508495005364</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.2293717486907</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>579.6676602319156</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>471.9334816672213</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9334816672213</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>295.2264276289775</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>129.6351526548052</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>129.6351526548052</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>40.97520342948047</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>127.5548885941703</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>127.5548885941703</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>545.7647703621315</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1005.248637543044</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1113.391253413568</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1533.06050263935</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1880.567396609691</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2048.760171474024</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2027.342350179395</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2027.342350179395</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1781.462903757851</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1503.029903010956</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1216.074394881386</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>944.0479904676779</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>944.0479904676779</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>944.0479904676779</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1509.326570953296</v>
+        <v>1776.678302241683</v>
       </c>
       <c r="C11" t="n">
-        <v>1509.326570953296</v>
+        <v>1338.535829425107</v>
       </c>
       <c r="D11" t="n">
-        <v>1191.756199156335</v>
+        <v>902.6260445995513</v>
       </c>
       <c r="E11" t="n">
-        <v>1191.756199156335</v>
+        <v>902.6260445995514</v>
       </c>
       <c r="F11" t="n">
-        <v>763.8887695655428</v>
+        <v>474.7586150087591</v>
       </c>
       <c r="G11" t="n">
-        <v>362.4909381888068</v>
+        <v>73.36078363202303</v>
       </c>
       <c r="H11" t="n">
-        <v>73.360783632023</v>
+        <v>73.36078363202303</v>
       </c>
       <c r="I11" t="n">
-        <v>72.94399425916301</v>
+        <v>72.94399425916303</v>
       </c>
       <c r="J11" t="n">
         <v>508.1986817120809</v>
@@ -5048,43 +5048,43 @@
         <v>1342.548973670259</v>
       </c>
       <c r="M11" t="n">
-        <v>1369.709123209017</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="N11" t="n">
-        <v>1369.709123209017</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="O11" t="n">
-        <v>2272.391052166159</v>
+        <v>2245.230902627402</v>
       </c>
       <c r="P11" t="n">
-        <v>3100.700926999556</v>
+        <v>3073.540777460797</v>
       </c>
       <c r="Q11" t="n">
-        <v>3647.19971295815</v>
+        <v>3620.039563419392</v>
       </c>
       <c r="R11" t="n">
-        <v>3647.19971295815</v>
+        <v>3647.199712958151</v>
       </c>
       <c r="S11" t="n">
-        <v>3647.19971295815</v>
+        <v>3563.547839141988</v>
       </c>
       <c r="T11" t="n">
-        <v>3427.132485831189</v>
+        <v>3563.547839141988</v>
       </c>
       <c r="U11" t="n">
-        <v>3167.910183148206</v>
+        <v>3304.325536459005</v>
       </c>
       <c r="V11" t="n">
-        <v>3167.910183148206</v>
+        <v>3008.962343951686</v>
       </c>
       <c r="W11" t="n">
-        <v>2763.054728559239</v>
+        <v>2604.106889362719</v>
       </c>
       <c r="X11" t="n">
-        <v>2343.91226513855</v>
+        <v>2184.96442594203</v>
       </c>
       <c r="Y11" t="n">
-        <v>1935.626141438203</v>
+        <v>1776.678302241683</v>
       </c>
     </row>
     <row r="12">
@@ -5100,25 +5100,25 @@
         <v>472.6592780870981</v>
       </c>
       <c r="D12" t="n">
-        <v>377.5689892336513</v>
+        <v>377.5689892336514</v>
       </c>
       <c r="E12" t="n">
-        <v>283.448574560605</v>
+        <v>283.4485745606051</v>
       </c>
       <c r="F12" t="n">
-        <v>200.0647361767666</v>
+        <v>200.0647361767667</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6796464429505</v>
+        <v>114.6796464429506</v>
       </c>
       <c r="H12" t="n">
-        <v>72.94399425916301</v>
+        <v>72.94399425916303</v>
       </c>
       <c r="I12" t="n">
-        <v>99.0076674196206</v>
+        <v>99.00766741962063</v>
       </c>
       <c r="J12" t="n">
-        <v>423.5659923858329</v>
+        <v>423.565992385833</v>
       </c>
       <c r="K12" t="n">
         <v>1078.272039011557</v>
@@ -5188,13 +5188,13 @@
         <v>238.5352692333354</v>
       </c>
       <c r="G13" t="n">
-        <v>72.94399425916301</v>
+        <v>72.94399425916299</v>
       </c>
       <c r="H13" t="n">
-        <v>72.94399425916301</v>
+        <v>72.94399425916303</v>
       </c>
       <c r="I13" t="n">
-        <v>72.94399425916301</v>
+        <v>72.94399425916303</v>
       </c>
       <c r="J13" t="n">
         <v>159.5236794238529</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5282,10 +5282,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883918</v>
+        <v>811.7546776883923</v>
       </c>
       <c r="C16" t="n">
-        <v>639.1929661716167</v>
+        <v>639.1929661716173</v>
       </c>
       <c r="D16" t="n">
-        <v>473.3149733731394</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E16" t="n">
         <v>444.5591692831958</v>
@@ -5464,22 +5464,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V16" t="n">
         <v>1748.411126173567</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X16" t="n">
         <v>1230.992967093271</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407379</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436403</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5522,7 +5522,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5543,22 +5543,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477109</v>
+        <v>970.996046390395</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736199</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324586</v>
+        <v>632.5563420751427</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831958</v>
+        <v>462.7983383258799</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876361</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832885</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5759,7 +5759,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5777,25 +5777,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883959</v>
+        <v>970.9960463903955</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716209</v>
+        <v>798.4343348736204</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731436</v>
+        <v>632.5563420751431</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238809</v>
+        <v>462.7983383258804</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856371</v>
+        <v>286.0912842876365</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134642</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050035</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.36663430314</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173571</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759862</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093275</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407383</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873778</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1062.363260807472</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C25" t="n">
-        <v>889.8015492906967</v>
+        <v>639.1929661716165</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731392</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>473.3149733731392</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1726.993304878938</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1481.601550212351</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1254.181879526459</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.363958244301</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497406</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954128</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
         <v>780.1951658309357</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7190,10 +7190,10 @@
         <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790892</v>
@@ -7202,22 +7202,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936681</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080667</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716802</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463116</v>
+        <v>442.5209799463123</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850155</v>
+        <v>293.329412385016</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
         <v>97.56670367581785</v>
@@ -7348,34 +7348,34 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947931</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976694</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="41">
@@ -7394,49 +7394,49 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>153.4018419862319</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.192791675539</v>
+        <v>1228.461808239091</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.192791675539</v>
+        <v>1228.461808239091</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675539</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
         <v>4607.41549767352</v>
@@ -7448,13 +7448,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080659</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716793</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463116</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850154</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,10 +7585,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579745</v>
@@ -7612,7 +7612,7 @@
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7664,10 +7664,10 @@
         <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.68233307924</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790891</v>
@@ -7685,13 +7685,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7834,16 +7834,16 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>121.1234907850361</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>655.0617495060595</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>655.0617495060596</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.257489509823074</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>655.0617495060595</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,13 +8140,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>370.2350542247758</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>120.5810333588747</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8222,19 +8222,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,16 +8377,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>369.8475292559658</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8453,28 +8453,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>512.1900428685059</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>512.190042868506</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685058</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>51.84429623450796</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685058</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>183.1401013920786</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685058</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,7 +8611,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8620,7 +8620,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>109.2349655257815</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8696,13 +8696,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>27.43449448359411</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395376</v>
+        <v>911.7999282395378</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>27.43449448359524</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9659,7 +9659,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>747.7485021910729</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>56.39912960647882</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>747.748502191072</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>117.1560188983091</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>66.58121998326595</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="E16" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-3.617985346829383e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.461769759898706e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627217</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142715</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>21.20364308167769</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>110.0349065174852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>794670.663820588</v>
+        <v>806503.592851674</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>794670.663820588</v>
+        <v>807142.1658782554</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>799177.5935428367</v>
+        <v>807142.1658782554</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>642212.9854692821</v>
+        <v>642212.9854692823</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>817966.4232942774</v>
+        <v>817966.4232942772</v>
       </c>
     </row>
     <row r="8">
@@ -26347,7 +26347,7 @@
         <v>171228.7148446394</v>
       </c>
       <c r="N2" t="n">
-        <v>174247.8789643828</v>
+        <v>174247.8789643827</v>
       </c>
       <c r="O2" t="n">
         <v>174247.8789643828</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.2586797192</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928949266</v>
       </c>
       <c r="D3" t="n">
-        <v>27302.57079477396</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119314.7203543119</v>
+        <v>72938.04361534402</v>
       </c>
       <c r="F3" t="n">
-        <v>105000.4827540558</v>
+        <v>105000.4827540557</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>171392.9763877635</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.1213473754</v>
       </c>
       <c r="L3" t="n">
-        <v>22245.22726401229</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99584.38187400259</v>
+        <v>60876.72976950141</v>
       </c>
       <c r="N3" t="n">
-        <v>88373.14763716061</v>
+        <v>88373.14763716057</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>158848.1923688625</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>184220.1095564571</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>53389.63827696993</v>
+        <v>53389.63827696994</v>
       </c>
       <c r="F4" t="n">
         <v>68000.69828933282</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933281</v>
@@ -26454,10 +26454,10 @@
         <v>81349.24995213679</v>
       </c>
       <c r="O4" t="n">
-        <v>81349.24995213679</v>
+        <v>81349.24995213677</v>
       </c>
       <c r="P4" t="n">
-        <v>81349.24995213679</v>
+        <v>81349.24995213677</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.35436996841</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>64768.75460640516</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>55437.43563696388</v>
+        <v>55437.4356369639</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26506,7 +26506,7 @@
         <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
         <v>75515.6147260897</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-227197.0360790651</v>
+        <v>-277581.9264541673</v>
       </c>
       <c r="C6" t="n">
-        <v>-85005.73541935527</v>
+        <v>-60624.63377899803</v>
       </c>
       <c r="D6" t="n">
-        <v>-102043.5559932535</v>
+        <v>-56601.28685004885</v>
       </c>
       <c r="E6" t="n">
-        <v>-93704.36379821476</v>
+        <v>-47633.92127843417</v>
       </c>
       <c r="F6" t="n">
-        <v>-79490.70480454166</v>
+        <v>-79513.92914392424</v>
       </c>
       <c r="G6" t="n">
-        <v>25509.77794951422</v>
+        <v>25486.55361013149</v>
       </c>
       <c r="H6" t="n">
-        <v>25509.77794951419</v>
+        <v>25486.55361013149</v>
       </c>
       <c r="I6" t="n">
-        <v>25509.77794951413</v>
+        <v>25486.55361013149</v>
       </c>
       <c r="J6" t="n">
-        <v>-85504.68739547607</v>
+        <v>-145906.422777632</v>
       </c>
       <c r="K6" t="n">
-        <v>25509.77794951413</v>
+        <v>22281.4322627561</v>
       </c>
       <c r="L6" t="n">
-        <v>3264.550685501832</v>
+        <v>25486.55361013148</v>
       </c>
       <c r="M6" t="n">
-        <v>-74074.60392448845</v>
+        <v>-35390.17615936991</v>
       </c>
       <c r="N6" t="n">
-        <v>-70990.13335100433</v>
+        <v>-70990.13335100435</v>
       </c>
       <c r="O6" t="n">
-        <v>17383.01428615628</v>
+        <v>17383.01428615631</v>
       </c>
       <c r="P6" t="n">
         <v>17383.01428615622</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060595</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>512.1900428685059</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>911.7999282395376</v>
+        <v>911.7999282395378</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060595</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.45345710179743</v>
       </c>
       <c r="D4" t="n">
-        <v>87.89418534840152</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.6098853710317</v>
+        <v>244.2847216316809</v>
       </c>
       <c r="F4" t="n">
-        <v>366.4605751452077</v>
+        <v>366.4605751452075</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060595</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179743</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840152</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710317</v>
+        <v>244.2847216316809</v>
       </c>
       <c r="N4" t="n">
-        <v>307.7838677081854</v>
+        <v>307.7838677081852</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060595</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179743</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534840152</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710317</v>
+        <v>244.2847216316809</v>
       </c>
       <c r="N4" t="n">
-        <v>366.4605751452077</v>
+        <v>366.4605751452075</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>304.8231008340756</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>101.3319306324442</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>168.895521264804</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>27.76183453684212</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>86.14502017843142</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>184.4619175354869</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>31.2844738498039</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>122.4480280049969</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>170.0119985257153</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>57.56237609144509</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>55.87832135360748</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29004,13 +29004,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.732907316589262e-12</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>121.1234907850361</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>655.0617495060595</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>655.0617495060596</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,7 +34778,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>6.257489509823074</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>655.0617495060595</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>370.2350542247758</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>120.5810333588747</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>369.8475292559658</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,28 +35173,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>512.1900428685059</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>512.190042868506</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685058</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>51.84429623450796</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685058</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>183.1401013920786</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685058</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>109.2349655257815</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35416,22 +35416,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>27.43449448359411</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395376</v>
+        <v>911.7999282395378</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>27.43449448359524</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35890,10 +35890,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36379,7 +36379,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>747.7485021910729</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>56.39912960647882</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>747.748502191072</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
